--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Btc-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Btc-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,10 +543,10 @@
         <v>1.389545</v>
       </c>
       <c r="I2">
-        <v>0.0739295519144354</v>
+        <v>0.3800727954645477</v>
       </c>
       <c r="J2">
-        <v>0.1069412678644624</v>
+        <v>0.47906870267432</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.517755</v>
+        <v>2.271905</v>
       </c>
       <c r="N2">
-        <v>7.553265</v>
+        <v>6.815715</v>
       </c>
       <c r="O2">
-        <v>0.2504376744648923</v>
+        <v>0.2806394474136332</v>
       </c>
       <c r="P2">
-        <v>0.2866298851167919</v>
+        <v>0.3070885820898414</v>
       </c>
       <c r="Q2">
-        <v>1.166177957158333</v>
+        <v>1.052304744408333</v>
       </c>
       <c r="R2">
-        <v>10.495601614425</v>
+        <v>9.470742699675</v>
       </c>
       <c r="S2">
-        <v>0.01851474505568273</v>
+        <v>0.1066634192961255</v>
       </c>
       <c r="T2">
-        <v>0.03065256332223494</v>
+        <v>0.1471165286278767</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +605,10 @@
         <v>1.389545</v>
       </c>
       <c r="I3">
-        <v>0.0739295519144354</v>
+        <v>0.3800727954645477</v>
       </c>
       <c r="J3">
-        <v>0.1069412678644624</v>
+        <v>0.47906870267432</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,16 +617,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.687724000000001</v>
+        <v>3.687724</v>
       </c>
       <c r="N3">
         <v>11.063172</v>
       </c>
       <c r="O3">
-        <v>0.3668129038085003</v>
+        <v>0.4555299739971492</v>
       </c>
       <c r="P3">
-        <v>0.4198231783721755</v>
+        <v>0.4984618345831706</v>
       </c>
       <c r="Q3">
         <v>1.708086148526667</v>
@@ -638,10 +635,10 @@
         <v>15.37277533674</v>
       </c>
       <c r="S3">
-        <v>0.02711831361499532</v>
+        <v>0.1731345506349892</v>
       </c>
       <c r="T3">
-        <v>0.0448964229740088</v>
+        <v>0.238797464426421</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +667,10 @@
         <v>1.389545</v>
       </c>
       <c r="I4">
-        <v>0.0739295519144354</v>
+        <v>0.3800727954645477</v>
       </c>
       <c r="J4">
-        <v>0.1069412678644624</v>
+        <v>0.47906870267432</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.7E-05</v>
+        <v>0.044076</v>
       </c>
       <c r="N4">
-        <v>0.000111</v>
+        <v>0.132228</v>
       </c>
       <c r="O4">
-        <v>3.680339808758603E-06</v>
+        <v>0.005444534117493161</v>
       </c>
       <c r="P4">
-        <v>4.212207204164545E-06</v>
+        <v>0.005957659472641616</v>
       </c>
       <c r="Q4">
-        <v>1.713772166666667E-05</v>
+        <v>0.02041519514</v>
       </c>
       <c r="R4">
-        <v>0.000154239495</v>
+        <v>0.18373675626</v>
       </c>
       <c r="S4">
-        <v>2.720858729543824E-07</v>
+        <v>0.00206931930203773</v>
       </c>
       <c r="T4">
-        <v>4.50458778921179E-07</v>
+        <v>0.002854128194533792</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +729,10 @@
         <v>1.389545</v>
       </c>
       <c r="I5">
-        <v>0.0739295519144354</v>
+        <v>0.3800727954645477</v>
       </c>
       <c r="J5">
-        <v>0.1069412678644624</v>
+        <v>0.47906870267432</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,33 +741,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.8082785</v>
+        <v>2.0917535</v>
       </c>
       <c r="N5">
-        <v>7.616557</v>
+        <v>4.183507000000001</v>
       </c>
       <c r="O5">
-        <v>0.3788042963889053</v>
+        <v>0.2583860444717245</v>
       </c>
       <c r="P5">
-        <v>0.2890316780750441</v>
+        <v>0.1884919238543463</v>
       </c>
       <c r="Q5">
-        <v>1.763924782760833</v>
+        <v>0.9688618723858334</v>
       </c>
       <c r="R5">
-        <v>10.583548696565</v>
+        <v>5.813171234315001</v>
       </c>
       <c r="S5">
-        <v>0.02800483189529475</v>
+        <v>0.09820550623139528</v>
       </c>
       <c r="T5">
-        <v>0.03090941410633836</v>
+        <v>0.09030058142548841</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -779,55 +776,55 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.4631816666666667</v>
+        <v>0.755484</v>
       </c>
       <c r="H6">
-        <v>1.389545</v>
+        <v>1.510968</v>
       </c>
       <c r="I6">
-        <v>0.0739295519144354</v>
+        <v>0.6199272045354524</v>
       </c>
       <c r="J6">
-        <v>0.1069412678644624</v>
+        <v>0.52093129732568</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.039625</v>
+        <v>2.271905</v>
       </c>
       <c r="N6">
-        <v>0.118875</v>
+        <v>6.815715</v>
       </c>
       <c r="O6">
-        <v>0.003941444997893504</v>
+        <v>0.2806394474136332</v>
       </c>
       <c r="P6">
-        <v>0.004511046228784326</v>
+        <v>0.3070885820898414</v>
       </c>
       <c r="Q6">
-        <v>0.01835357354166667</v>
+        <v>1.71638787702</v>
       </c>
       <c r="R6">
-        <v>0.165182161875</v>
+        <v>10.29832726212</v>
       </c>
       <c r="S6">
-        <v>0.0002913892625896595</v>
+        <v>0.1739760281175077</v>
       </c>
       <c r="T6">
-        <v>0.0004824170031013977</v>
+        <v>0.1599720534619646</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +838,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,16 +847,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>5.8019945</v>
+        <v>0.755484</v>
       </c>
       <c r="H7">
-        <v>11.603989</v>
+        <v>1.510968</v>
       </c>
       <c r="I7">
-        <v>0.9260704480855646</v>
+        <v>0.6199272045354524</v>
       </c>
       <c r="J7">
-        <v>0.8930587321355375</v>
+        <v>0.52093129732568</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.517755</v>
+        <v>3.687724</v>
       </c>
       <c r="N7">
-        <v>7.553265</v>
+        <v>11.063172</v>
       </c>
       <c r="O7">
-        <v>0.2504376744648923</v>
+        <v>0.4555299739971492</v>
       </c>
       <c r="P7">
-        <v>0.2866298851167919</v>
+        <v>0.4984618345831706</v>
       </c>
       <c r="Q7">
-        <v>14.6080006623475</v>
+        <v>2.786016478416</v>
       </c>
       <c r="R7">
-        <v>87.648003974085</v>
+        <v>16.716098870496</v>
       </c>
       <c r="S7">
-        <v>0.2319229294092096</v>
+        <v>0.28239542336216</v>
       </c>
       <c r="T7">
-        <v>0.255977321794557</v>
+        <v>0.2596643701567495</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +900,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -912,46 +909,46 @@
         <v>0.5</v>
       </c>
       <c r="G8">
-        <v>5.8019945</v>
+        <v>0.755484</v>
       </c>
       <c r="H8">
-        <v>11.603989</v>
+        <v>1.510968</v>
       </c>
       <c r="I8">
-        <v>0.9260704480855646</v>
+        <v>0.6199272045354524</v>
       </c>
       <c r="J8">
-        <v>0.8930587321355375</v>
+        <v>0.52093129732568</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.687724000000001</v>
+        <v>0.044076</v>
       </c>
       <c r="N8">
-        <v>11.063172</v>
+        <v>0.132228</v>
       </c>
       <c r="O8">
-        <v>0.3668129038085003</v>
+        <v>0.005444534117493161</v>
       </c>
       <c r="P8">
-        <v>0.4198231783721755</v>
+        <v>0.005957659472641616</v>
       </c>
       <c r="Q8">
-        <v>21.396154365518</v>
+        <v>0.033298712784</v>
       </c>
       <c r="R8">
-        <v>128.376926193108</v>
+        <v>0.199792276704</v>
       </c>
       <c r="S8">
-        <v>0.339694590193505</v>
+        <v>0.003375214815455432</v>
       </c>
       <c r="T8">
-        <v>0.3749267553981667</v>
+        <v>0.003103531278107823</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +962,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -974,170 +971,46 @@
         <v>0.5</v>
       </c>
       <c r="G9">
-        <v>5.8019945</v>
+        <v>0.755484</v>
       </c>
       <c r="H9">
-        <v>11.603989</v>
+        <v>1.510968</v>
       </c>
       <c r="I9">
-        <v>0.9260704480855646</v>
+        <v>0.6199272045354524</v>
       </c>
       <c r="J9">
-        <v>0.8930587321355375</v>
+        <v>0.52093129732568</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>3.7E-05</v>
+        <v>2.0917535</v>
       </c>
       <c r="N9">
-        <v>0.000111</v>
+        <v>4.183507000000001</v>
       </c>
       <c r="O9">
-        <v>3.680339808758603E-06</v>
+        <v>0.2583860444717245</v>
       </c>
       <c r="P9">
-        <v>4.212207204164545E-06</v>
+        <v>0.1884919238543463</v>
       </c>
       <c r="Q9">
-        <v>0.0002146737965</v>
+        <v>1.580286301194</v>
       </c>
       <c r="R9">
-        <v>0.001288042779</v>
+        <v>6.321145204776001</v>
       </c>
       <c r="S9">
-        <v>3.40825393580422E-06</v>
+        <v>0.1601805382403293</v>
       </c>
       <c r="T9">
-        <v>3.761748425243366E-06</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>5.8019945</v>
-      </c>
-      <c r="H10">
-        <v>11.603989</v>
-      </c>
-      <c r="I10">
-        <v>0.9260704480855646</v>
-      </c>
-      <c r="J10">
-        <v>0.8930587321355375</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.8082785</v>
-      </c>
-      <c r="N10">
-        <v>7.616557</v>
-      </c>
-      <c r="O10">
-        <v>0.3788042963889053</v>
-      </c>
-      <c r="P10">
-        <v>0.2890316780750441</v>
-      </c>
-      <c r="Q10">
-        <v>22.09561091146825</v>
-      </c>
-      <c r="R10">
-        <v>88.38244364587301</v>
-      </c>
-      <c r="S10">
-        <v>0.3507994644936106</v>
-      </c>
-      <c r="T10">
-        <v>0.2581222639687057</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>5.8019945</v>
-      </c>
-      <c r="H11">
-        <v>11.603989</v>
-      </c>
-      <c r="I11">
-        <v>0.9260704480855646</v>
-      </c>
-      <c r="J11">
-        <v>0.8930587321355375</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.039625</v>
-      </c>
-      <c r="N11">
-        <v>0.118875</v>
-      </c>
-      <c r="O11">
-        <v>0.003941444997893504</v>
-      </c>
-      <c r="P11">
-        <v>0.004511046228784326</v>
-      </c>
-      <c r="Q11">
-        <v>0.2299040320625</v>
-      </c>
-      <c r="R11">
-        <v>1.379424192375</v>
-      </c>
-      <c r="S11">
-        <v>0.003650055735303844</v>
-      </c>
-      <c r="T11">
-        <v>0.004028629225682929</v>
+        <v>0.09819134242885794</v>
       </c>
     </row>
   </sheetData>
